--- a/docs/neuro/docs.xlsx
+++ b/docs/neuro/docs.xlsx
@@ -11,7 +11,7 @@
     <sheet name="docs" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">docs!$C$1:$C$15</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">docs!$C$1:$C$5</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
   <si>
     <t xml:space="preserve">filename</t>
   </si>
@@ -37,10 +37,10 @@
     <t xml:space="preserve">type</t>
   </si>
   <si>
-    <t xml:space="preserve">bean-action-potentials</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Action Potentials - Review</t>
+    <t xml:space="preserve">nurb-discussion-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neurobiology Discussion 1</t>
   </si>
   <si>
     <t xml:space="preserve">Neuroscience</t>
@@ -49,91 +49,31 @@
     <t xml:space="preserve">notes</t>
   </si>
   <si>
-    <t xml:space="preserve">natural-image-statistics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Natural Image Statistics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">book</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nurb-discussion-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neurobiology Discussion 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unified-coding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unified Coding</t>
+    <t xml:space="preserve">basic-visual-coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basic Visual Coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nurb-discussion-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neurobiology Discussion 2</t>
   </si>
   <si>
     <t xml:space="preserve">article</t>
   </si>
   <si>
-    <t xml:space="preserve">unified-coding-supplement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unified Coding SI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">basic-visual-coding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Basic Visual Coding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">theoretical-neuroscience</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Theoretical Neuroscience</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nurb-discussion-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neurobiology Discussion 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">elements-of-neural-analysis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elements of Neural Analysis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">comp-neuro-vision</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Computational Neuroscience of Vision</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gabor-jets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gabor Jets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">paper</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gabor-representation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gabor Representation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gabor-theory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gabor Theory</t>
-  </si>
-  <si>
     <t xml:space="preserve">neurobio-final</t>
   </si>
   <si>
     <t xml:space="preserve">Neurobiology Exam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">neuroelectronics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neuroelectronics</t>
   </si>
 </sst>
 </file>
@@ -143,7 +83,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -178,6 +118,13 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -224,7 +171,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -234,6 +181,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -261,10 +212,10 @@
   <dimension ref="A1:D1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
+      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.50390625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.51171875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="44.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33.66"/>
@@ -311,24 +262,24 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -339,153 +290,37 @@
         <v>6</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="C1:C15"/>
+  <autoFilter ref="C1:C5"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
